--- a/biology/Histoire de la zoologie et de la botanique/Joachim_Jung/Joachim_Jung.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joachim_Jung/Joachim_Jung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joachim Jung (ou Jungius) est un philosophe, logicien, mathématicien et naturaliste allemand, né le 22 octobre 1587 à Lübeck et mort le 17 septembre 1657 (à 69 ans) à Hambourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joachim Jung étudie la métaphysique à Lübeck de 1606 à 1608, puis à l’université de Rostock, où il obtient un professorat de mathématiques en 1609. En 1616, il commence à étudier la médecine à Rostock et obtient à Padoue, en 1619, son titre de docteur.
 De 1624 à 1625, puis de nouveau de 1626 à 1628, il enseigne les mathématiques à Rostock et la médecine à l’université de Helmstedt. Il s’installe, en 1629, à Hambourg, où il enseigne les sciences naturelles.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Geometria empirica, 1627.
 Logica Hamburgensis, Hamburg, 1638, réimpression anastatique par Rudolf W. Meyer, Hamburg: J.J. Augustin, 1957.
